--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -36,6 +36,31 @@
   </si>
   <si>
     <t>Considerations</t>
+  </si>
+  <si>
+    <t>Máster Geovanni Rojas Rodríguez, Director
+                    Departamento de Adminisión y Registro</t>
+  </si>
+  <si>
+    <t>Resolución de la Dirección de la Escuela de Ingeniería en Computación
+Instituto Tecnológico de Costa Rica</t>
+  </si>
+  <si>
+    <t>Blub 17/06/2017</t>
+  </si>
+  <si>
+    <t>sldhl</t>
+  </si>
+  <si>
+    <t>jeje IC4301</t>
+  </si>
+  <si>
+    <t>Ing. Mauricio Arroyo Herrera
+Director Escuela Ingeniería en Computación
+Instituto Tecnológico de Costa Rica</t>
+  </si>
+  <si>
+    <t>sddsdf</t>
   </si>
 </sst>
 </file>
@@ -112,6 +137,32 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
@@ -52,7 +52,7 @@
     <t>sldhl</t>
   </si>
   <si>
-    <t>jeje IC4301</t>
+    <t>jeje IC5821</t>
   </si>
   <si>
     <t>Ing. Mauricio Arroyo Herrera
@@ -139,7 +139,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
@@ -46,13 +46,13 @@
 Instituto Tecnológico de Costa Rica</t>
   </si>
   <si>
-    <t>Blub 17/06/2017</t>
+    <t>A las (hora) de (mes) del año (año), el suscrito Ing. Mauricio Arroyo Herrera, Director de la Escuela de Ingeniería en Computación en atención al caso de modificación de acta del estudiante ESTUDIANTE 2, carné 2015567890, sobre el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1, del (número) semestre del año (año), resuelvo:</t>
   </si>
   <si>
-    <t>sldhl</t>
+    <t>Por un error involuntario, no se tramitó la inclusión del estudiante ESTUDIANTE 2 con identificación 2015567890 en el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 impartido por el profesor ALICIA SALAZAR HERNÁNDEZ en el (semestre) semestre del año (año) y al final del semestre, el profesor no pudo registrar en el acta la calificación obtenida por el estudiante.</t>
   </si>
   <si>
-    <t>jeje IC5821</t>
+    <t>Autorizar la modificación del acta del curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 en el (semestre) semestre del año (año) impartido por el profesor ALICIA SALAZAR HERNÁNDEZ para incluir al estudiante ESTUDIANTE 2, carné 2015567890 con una nota de aprobación de (nota por escrito) (# de nota).</t>
   </si>
   <si>
     <t>Ing. Mauricio Arroyo Herrera
@@ -60,7 +60,7 @@
 Instituto Tecnológico de Costa Rica</t>
   </si>
   <si>
-    <t>sddsdf</t>
+    <t>Después de haber realizado la investigación del caso, y consultado al profesor ALICIA SALAZAR HERNÁNDEZ, quien impartió el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 en el (semestre) semestre del año (año) se logra comprobar que el estudiante ESTUDIANTE 2, carné 2015567890, efectivamente aprobó el curso con una nota de (nota por escrito) (# de nota), por lo que esta Dirección solicita gestionar la modificación del acta correspondiente.</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
@@ -46,13 +46,13 @@
 Instituto Tecnológico de Costa Rica</t>
   </si>
   <si>
-    <t>A las (hora) de (mes) del año (año), el suscrito Ing. Mauricio Arroyo Herrera, Director de la Escuela de Ingeniería en Computación en atención al caso de modificación de acta del estudiante ESTUDIANTE 2, carné 2015567890, sobre el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1, del (número) semestre del año (año), resuelvo:</t>
+    <t>Blub 18/06/2017</t>
   </si>
   <si>
-    <t>Por un error involuntario, no se tramitó la inclusión del estudiante ESTUDIANTE 2 con identificación 2015567890 en el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 impartido por el profesor ALICIA SALAZAR HERNÁNDEZ en el (semestre) semestre del año (año) y al final del semestre, el profesor no pudo registrar en el acta la calificación obtenida por el estudiante.</t>
+    <t>sldhl</t>
   </si>
   <si>
-    <t>Autorizar la modificación del acta del curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 en el (semestre) semestre del año (año) impartido por el profesor ALICIA SALAZAR HERNÁNDEZ para incluir al estudiante ESTUDIANTE 2, carné 2015567890 con una nota de aprobación de (nota por escrito) (# de nota).</t>
+    <t>jeje IC5821</t>
   </si>
   <si>
     <t>Ing. Mauricio Arroyo Herrera
@@ -60,7 +60,7 @@
 Instituto Tecnológico de Costa Rica</t>
   </si>
   <si>
-    <t>Después de haber realizado la investigación del caso, y consultado al profesor ALICIA SALAZAR HERNÁNDEZ, quien impartió el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 en el (semestre) semestre del año (año) se logra comprobar que el estudiante ESTUDIANTE 2, carné 2015567890, efectivamente aprobó el curso con una nota de (nota por escrito) (# de nota), por lo que esta Dirección solicita gestionar la modificación del acta correspondiente.</t>
+    <t>sddsdf</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
@@ -139,7 +139,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -36,31 +36,6 @@
   </si>
   <si>
     <t>Considerations</t>
-  </si>
-  <si>
-    <t>Máster Geovanni Rojas Rodríguez, Director
-                    Departamento de Adminisión y Registro</t>
-  </si>
-  <si>
-    <t>Resolución de la Dirección de la Escuela de Ingeniería en Computación
-Instituto Tecnológico de Costa Rica</t>
-  </si>
-  <si>
-    <t>A las (hora) de (mes) del año (año), el suscrito Ing. Mauricio Arroyo Herrera, Director de la Escuela de Ingeniería en Computación en atención al caso de modificación de acta del estudiante ESTUDIANTE 2, carné 2015567890, sobre el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1, del (número) semestre del año (año), resuelvo:</t>
-  </si>
-  <si>
-    <t>Por un error involuntario, no se tramitó la inclusión del estudiante ESTUDIANTE 2 con identificación 2015567890 en el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 impartido por el profesor ALICIA SALAZAR HERNÁNDEZ en el (semestre) semestre del año (año) y al final del semestre, el profesor no pudo registrar en el acta la calificación obtenida por el estudiante.</t>
-  </si>
-  <si>
-    <t>Autorizar la modificación del acta del curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 en el (semestre) semestre del año (año) impartido por el profesor ALICIA SALAZAR HERNÁNDEZ para incluir al estudiante ESTUDIANTE 2, carné 2015567890 con una nota de aprobación de (nota por escrito) (# de nota).</t>
-  </si>
-  <si>
-    <t>Ing. Mauricio Arroyo Herrera
-Director Escuela Ingeniería en Computación
-Instituto Tecnológico de Costa Rica</t>
-  </si>
-  <si>
-    <t>Después de haber realizado la investigación del caso, y consultado al profesor ALICIA SALAZAR HERNÁNDEZ, quien impartió el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 en el (semestre) semestre del año (año) se logra comprobar que el estudiante ESTUDIANTE 2, carné 2015567890, efectivamente aprobó el curso con una nota de (nota por escrito) (# de nota), por lo que esta Dirección solicita gestionar la modificación del acta correspondiente.</t>
   </si>
 </sst>
 </file>
@@ -137,32 +112,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -36,6 +36,44 @@
   </si>
   <si>
     <t>Considerations</t>
+  </si>
+  <si>
+    <t>Máster Geovanni Rojas Rodríguez, Director
+                    Departamento de Adminisión y Registro</t>
+  </si>
+  <si>
+    <t>Resolución de la Dirección de la Escuela de Ingeniería en Computación
+Instituto Tecnológico de Costa Rica</t>
+  </si>
+  <si>
+    <t>A las (hora) de (mes) del año (año), el suscrito Ing. Mauricio Arroyo Herrera, Director de la Escuela de Ingeniería en Computación en atención al caso de modificación de acta del estudiante ESTUDIANTE 2, carné 2015567890, sobre el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1, del (número) semestre del año (año), resuelvo:</t>
+  </si>
+  <si>
+    <t>Por un error involuntario, no se tramitó la inclusión del estudiante ESTUDIANTE 2 con identificación 2015567890 en el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 impartido por el profesor ALICIA SALAZAR HERNÁNDEZ en el (semestre) semestre del año (año) y al final del semestre, el profesor no pudo registrar en el acta la calificación obtenida por el estudiante.</t>
+  </si>
+  <si>
+    <t>Autorizar la modificación del acta del curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 en el (semestre) semestre del año (año) impartido por el profesor ALICIA SALAZAR HERNÁNDEZ para incluir al estudiante ESTUDIANTE 2, carné 2015567890 con una nota de aprobación de (nota por escrito) (# de nota).</t>
+  </si>
+  <si>
+    <t>Ing. Mauricio Arroyo Herrera
+Director Escuela Ingeniería en Computación
+Instituto Tecnológico de Costa Rica</t>
+  </si>
+  <si>
+    <t>Después de haber realizado la investigación del caso, y consultado al profesor ALICIA SALAZAR HERNÁNDEZ, quien impartió el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 en el (semestre) semestre del año (año) se logra comprobar que el estudiante ESTUDIANTE 2, carné 2015567890, efectivamente aprobó el curso con una nota de (nota por escrito) (# de nota), por lo que esta Dirección solicita gestionar la modificación del acta correspondiente.</t>
+  </si>
+  <si>
+    <t>A las (hora) de (mes) del año (año), el suscrito Ing. Mauricio Arroyo Herrera, Director de la Escuela de Ingeniería en Computación en atención al caso de modificación de acta del estudiante FGDFG, carné 21345, sobre el curso IC4301 BASES DE DATOS I, grupo 1, del (número) semestre del año (año), resuelvo:</t>
+  </si>
+  <si>
+    <t>Esta Dirección autoriza la modificación del acta del curso sobre el curso IC4301 BASES DE DATOS I, grupo 1 para gestionar la exclusión de la matrícula del estudiante FGDFG, carné 21345, pues el curso fue cerrado por no alcanzar el cupo.</t>
+  </si>
+  <si>
+    <t>A las (hora) horas del (día) de (mes) del año (año), el suscrito Ing. Mauricio Arroyo Herrera, Director de la Escuela de Ingeniería en Computación, en atención al caso de modificación de acta de los estudiantes que se indican en el cuadro inferior, sobre el curso IC4301 BASES DE DATOS I, grupo 1, asignado al profesor ALICIA SALAZAR HERNÁNDEZ, ofertado en el periodo de (periodo) del año (año), resuelvo:</t>
+  </si>
+  <si>
+    <t>Después de haber analizado las posibilidades de mantener el curso IC4301 BASES DE DATOS I, grupo 1 abierto, no se alcanza la cantidad de cupos mínimos necesarios, por lo que se procede a indicar el cierre del mismo al Departamento de Admisión y Registro.
+ No obstante, por error se omite indicar al Departamento de Admisión y Registro la exclusión de los estudiantes matriculados en el curso que no podrán llevarlo dada la baja matrícula, afectando esto el récord curricular y el estado de cobro del estudiante matriculado.</t>
   </si>
 </sst>
 </file>
@@ -112,6 +150,58 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -36,44 +36,6 @@
   </si>
   <si>
     <t>Considerations</t>
-  </si>
-  <si>
-    <t>Máster Geovanni Rojas Rodríguez, Director
-                    Departamento de Adminisión y Registro</t>
-  </si>
-  <si>
-    <t>Resolución de la Dirección de la Escuela de Ingeniería en Computación
-Instituto Tecnológico de Costa Rica</t>
-  </si>
-  <si>
-    <t>A las (hora) de (mes) del año (año), el suscrito Ing. Mauricio Arroyo Herrera, Director de la Escuela de Ingeniería en Computación en atención al caso de modificación de acta del estudiante ESTUDIANTE 2, carné 2015567890, sobre el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1, del (número) semestre del año (año), resuelvo:</t>
-  </si>
-  <si>
-    <t>Por un error involuntario, no se tramitó la inclusión del estudiante ESTUDIANTE 2 con identificación 2015567890 en el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 impartido por el profesor ALICIA SALAZAR HERNÁNDEZ en el (semestre) semestre del año (año) y al final del semestre, el profesor no pudo registrar en el acta la calificación obtenida por el estudiante.</t>
-  </si>
-  <si>
-    <t>Autorizar la modificación del acta del curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 en el (semestre) semestre del año (año) impartido por el profesor ALICIA SALAZAR HERNÁNDEZ para incluir al estudiante ESTUDIANTE 2, carné 2015567890 con una nota de aprobación de (nota por escrito) (# de nota).</t>
-  </si>
-  <si>
-    <t>Ing. Mauricio Arroyo Herrera
-Director Escuela Ingeniería en Computación
-Instituto Tecnológico de Costa Rica</t>
-  </si>
-  <si>
-    <t>Después de haber realizado la investigación del caso, y consultado al profesor ALICIA SALAZAR HERNÁNDEZ, quien impartió el curso IC5821 REQUERIMIENTOS DE SOFTWARE, grupo 1 en el (semestre) semestre del año (año) se logra comprobar que el estudiante ESTUDIANTE 2, carné 2015567890, efectivamente aprobó el curso con una nota de (nota por escrito) (# de nota), por lo que esta Dirección solicita gestionar la modificación del acta correspondiente.</t>
-  </si>
-  <si>
-    <t>A las (hora) de (mes) del año (año), el suscrito Ing. Mauricio Arroyo Herrera, Director de la Escuela de Ingeniería en Computación en atención al caso de modificación de acta del estudiante FGDFG, carné 21345, sobre el curso IC4301 BASES DE DATOS I, grupo 1, del (número) semestre del año (año), resuelvo:</t>
-  </si>
-  <si>
-    <t>Esta Dirección autoriza la modificación del acta del curso sobre el curso IC4301 BASES DE DATOS I, grupo 1 para gestionar la exclusión de la matrícula del estudiante FGDFG, carné 21345, pues el curso fue cerrado por no alcanzar el cupo.</t>
-  </si>
-  <si>
-    <t>A las (hora) horas del (día) de (mes) del año (año), el suscrito Ing. Mauricio Arroyo Herrera, Director de la Escuela de Ingeniería en Computación, en atención al caso de modificación de acta de los estudiantes que se indican en el cuadro inferior, sobre el curso IC4301 BASES DE DATOS I, grupo 1, asignado al profesor ALICIA SALAZAR HERNÁNDEZ, ofertado en el periodo de (periodo) del año (año), resuelvo:</t>
-  </si>
-  <si>
-    <t>Después de haber analizado las posibilidades de mantener el curso IC4301 BASES DE DATOS I, grupo 1 abierto, no se alcanza la cantidad de cupos mínimos necesarios, por lo que se procede a indicar el cierre del mismo al Departamento de Admisión y Registro.
- No obstante, por error se omite indicar al Departamento de Admisión y Registro la exclusión de los estudiantes matriculados en el curso que no podrán llevarlo dada la baja matrícula, afectando esto el récord curricular y el estado de cobro del estudiante matriculado.</t>
   </si>
 </sst>
 </file>
@@ -150,58 +112,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -36,6 +36,31 @@
   </si>
   <si>
     <t>Considerations</t>
+  </si>
+  <si>
+    <t>Máster Geovanni Rojas Rodríguez, Director
+                    Departamento de Adminisión y Registro</t>
+  </si>
+  <si>
+    <t>Resolución de la Dirección de la Escuela de Ingeniería en Computación
+Instituto Tecnológico de Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimado  Ing. Mauricio Arroyo Herrera, espero que se encuentre bien	</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bla bla bla  bla bla bla   FGDFG 18/06/2017 BASES DE DATOS Ibla bla bla bla bla bla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bla bla bla  2017bla bla bla </t>
+  </si>
+  <si>
+    <t>Ing. Mauricio Arroyo Herrera
+Director Escuela Ingeniería en Computación
+Instituto Tecnológico de Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bla bla bla </t>
   </si>
 </sst>
 </file>
@@ -112,6 +137,32 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosResolucion.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t xml:space="preserve">bla bla bla </t>
+  </si>
+  <si>
+    <t>A las (hora) de (mes) del año (año), el suscrito Ing. Mauricio Arroyo Herrera, Director de la Escuela de Ingeniería en Computación en atención al caso de modificación de acta del estudiante XIMENA, carné 2015073844, sobre el curso IC1802 INTRODUCCIÓN A LA PROGRAMACIÓN, grupo 1, del (número) semestre del año (año), resuelvo:</t>
+  </si>
+  <si>
+    <t>Por un error involuntario, no se tramitó la inclusión del estudiante XIMENA con identificación 2015073844 en el curso IC1802 INTRODUCCIÓN A LA PROGRAMACIÓN, grupo 1 impartido por el profesor IVANNIA CERDAS QUESADA en el (semestre) semestre del año (año) y al final del semestre, el profesor no pudo registrar en el acta la calificación obtenida por el estudiante.</t>
+  </si>
+  <si>
+    <t>Autorizar la modificación del acta del curso IC1802 INTRODUCCIÓN A LA PROGRAMACIÓN, grupo 1 en el (semestre) semestre del año (año) impartido por el profesor IVANNIA CERDAS QUESADA para incluir al estudiante XIMENA, carné 2015073844 con una nota de aprobación de (nota por escrito) (# de nota).</t>
+  </si>
+  <si>
+    <t>Después de haber realizado la investigación del caso, y consultado al profesor IVANNIA CERDAS QUESADA, quien impartió el curso IC1802 INTRODUCCIÓN A LA PROGRAMACIÓN, grupo 1 en el (semestre) semestre del año (año) se logra comprobar que el estudiante XIMENA, carné 2015073844, efectivamente aprobó el curso con una nota de (nota por escrito) (# de nota), por lo que esta Dirección solicita gestionar la modificación del acta correspondiente.</t>
   </si>
 </sst>
 </file>
@@ -163,6 +175,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
